--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1049485.538527323</v>
+        <v>1094864.224080486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6624256.48755649</v>
+        <v>7228097.927258085</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>73.12713358063633</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>102.7176563887149</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022511</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.223633682825256</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>310.7925313457777</v>
       </c>
       <c r="C5" t="n">
-        <v>389.4221635534926</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>66.1229701596079</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>166.3197703738368</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>66.12232352323828</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>64.32458389125834</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>39.86022305741697</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>192.856461325656</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>41.94061297377414</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855527</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>193.5714482617744</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765188</v>
       </c>
       <c r="U16" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.71811217257828</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>27.18442331492817</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>82.4364859564396</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3743,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>226.7671148741339</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791327643</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>179.0861311466708</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>170.866744519042</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480023087</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.8602641703436</v>
+        <v>1343.932506313052</v>
       </c>
       <c r="C2" t="n">
-        <v>210.7177913537669</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355598</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655251</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>2009.22077188965</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>2670.060826431428</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>2670.060826431428</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>2670.060826431428</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>2670.060826431428</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>519.4003675628674</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>519.4003675628674</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>519.4003675628674</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>519.4003675628674</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885332</v>
+        <v>342.6933135246236</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>177.1020385504513</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>37.19986424082578</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>746.820038248759</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>519.4003675628674</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.1876844265726</v>
+        <v>2187.524650040843</v>
       </c>
       <c r="C5" t="n">
-        <v>138.8319636654689</v>
+        <v>1749.382177224266</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>1313.47239239871</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>879.6976475570054</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032516</v>
+        <v>2520.80427892529</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.773378611827</v>
+        <v>2505.702219545005</v>
       </c>
       <c r="Y5" t="n">
-        <v>958.4872549114804</v>
+        <v>2501.456499885062</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1175.902039375362</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>952.7834931631146</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>780.2217816463395</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>614.3437888478622</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255753</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413397</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2454.828450524754</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="V7" t="n">
-        <v>1797.089421211977</v>
+        <v>1889.43994164829</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1617.413537234581</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1372.021782567994</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1144.602111882102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.558022317326</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,13 +4807,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4844,10 +4846,10 @@
         <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.857592802234</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>568.9155211348376</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1575173855749</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2048.574072823222</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.431600006645</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.52181518109</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219836</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2048.574072823222</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2048.574072823222</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2048.574072823222</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.574072823222</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1037.646641488098</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>865.0849299713233</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>699.206937172846</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>529.4489334235832</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>352.7418793853394</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>187.1506044111671</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2313.799635050036</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2035.366634303141</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1702.276685559565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1456.884930892977</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1229.465260207086</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1765.351233517351</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1327.208760700774</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>891.2989758752185</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335137</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094008</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094008</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.254791162024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.818986914647</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.818986914647</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914647</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2610.793267422948</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2191.650804002259</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2191.650804002259</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677763</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>484.0630267508877</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508877</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508877</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5492,37 +5494,37 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5680,43 +5682,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5929,10 +5931,10 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
         <v>2700.681281130895</v>
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2683.851649999257</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2437.972203577713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2159.539202830818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1872.583694701248</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3219.389950875955</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4199.569617446262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2510.802246727525</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2232.36924598063</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1945.413737851061</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1673.387333437352</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1427.995578770765</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.575908084873</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>852.6195887352237</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2009.667423945775</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>3135.398407382222</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,10 +6551,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
         <v>5113.042013538981</v>
@@ -6959,7 +6961,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7168,46 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2612.502369310543</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="N38" t="n">
-        <v>3738.23335274699</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232937</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.44935241636</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1114.44935241636</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1114.44935241636</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5819228255682</v>
+        <v>793.2056155771609</v>
       </c>
       <c r="G41" t="n">
-        <v>285.1840914488321</v>
+        <v>391.8077842004247</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862318</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L41" t="n">
-        <v>1880.509478614941</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M41" t="n">
-        <v>2259.821196880286</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N41" t="n">
-        <v>2259.821196880286</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O41" t="n">
-        <v>2259.821196880286</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880286</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838881</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418191</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717845</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.1900728172352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>213.0649915360009</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K42" t="n">
-        <v>213.0649915360009</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L42" t="n">
-        <v>213.0649915360009</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886238</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N42" t="n">
-        <v>1602.193383041247</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2267.665194436029</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1980.70968630646</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677761</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677761</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094004</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.254791162023</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N44" t="n">
-        <v>2139.818986914646</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838881</v>
+        <v>3718.48614398331</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838881</v>
+        <v>4546.796018816706</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>5093.294804775302</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.252755711919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028936</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1791.820831731407</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1791.820831731407</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1791.820831731407</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.1900728172352</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677761</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,28 +8060,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8145,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671608</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>651.931657540612</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097205</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10601,7 +10603,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>606.9002735643694</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097202</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>383.1431497629742</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1968875947128</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097199</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>19.94667551886869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>519.9105708963857</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>166.1343192398557</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>96.56253959275509</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627212</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>207.2354517813026</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.7165723808105</v>
       </c>
       <c r="U16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>122.930842842405</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>216.2362286424011</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>81.78272691405293</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>59.47173813708199</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.22000922290059</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>229.940155524035</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605158.8959454857</v>
+        <v>585204.4926532179</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>605158.8959454857</v>
+        <v>602114.2558842516</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>419873.1499398567</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>419873.1499398568</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634368.5695750326</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634368.5695750327</v>
+        <v>634368.5695750325</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634368.5695750326</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419873.1499398568</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>419873.1499398567</v>
+        <v>634368.5695750325</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="C2" t="n">
         <v>402110.4899178064</v>
-      </c>
-      <c r="C2" t="n">
-        <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="H2" t="n">
         <v>395143.1881030143</v>
       </c>
-      <c r="H2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="I2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661555</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661555</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045616</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334076</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182515.9822733277</v>
+        <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>182515.9822733277</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>71692.6020785367</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>71692.6020785367</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>71692.60207853667</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>71692.60207853667</v>
+        <v>108317.3178284628</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78317.71550132385</v>
+        <v>-17730.86491169507</v>
       </c>
       <c r="C6" t="n">
-        <v>145381.983082721</v>
+        <v>75602.00842385081</v>
       </c>
       <c r="D6" t="n">
-        <v>145381.983082721</v>
+        <v>133854.3875327382</v>
       </c>
       <c r="E6" t="n">
-        <v>137016.0173480118</v>
+        <v>26752.52244770908</v>
       </c>
       <c r="F6" t="n">
-        <v>147187.0139484679</v>
+        <v>209107.6316687588</v>
       </c>
       <c r="G6" t="n">
-        <v>51048.15472264957</v>
+        <v>209107.6316687588</v>
       </c>
       <c r="H6" t="n">
         <v>209107.6316687588</v>
       </c>
       <c r="I6" t="n">
+        <v>209107.6316687587</v>
+      </c>
+      <c r="J6" t="n">
+        <v>98093.16632376867</v>
+      </c>
+      <c r="K6" t="n">
+        <v>156061.7770299863</v>
+      </c>
+      <c r="L6" t="n">
+        <v>199715.3299421364</v>
+      </c>
+      <c r="M6" t="n">
+        <v>56907.46073077113</v>
+      </c>
+      <c r="N6" t="n">
         <v>209107.6316687588</v>
       </c>
-      <c r="J6" t="n">
-        <v>34456.28295105258</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>209107.6316687588</v>
       </c>
-      <c r="L6" t="n">
-        <v>209107.6316687588</v>
-      </c>
-      <c r="M6" t="n">
-        <v>200618.549965418</v>
-      </c>
-      <c r="N6" t="n">
-        <v>209107.6316687587</v>
-      </c>
-      <c r="O6" t="n">
-        <v>147187.0139484679</v>
-      </c>
       <c r="P6" t="n">
-        <v>147187.0139484679</v>
+        <v>209107.6316687589</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>348.9094411994224</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>328.833030588585</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>84.54971605024616</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.244043434281</v>
       </c>
       <c r="C5" t="n">
-        <v>44.33888453491835</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.2976817977214</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>367.6387245651727</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>367.2261030860416</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.0797604404444</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.626503470622263e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28752,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.817562007254101e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671608</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>651.931657540612</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512993</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097205</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35819,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,13 +36609,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37321,7 +37323,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>606.9002735643694</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097202</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>383.1431497629742</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.1968875947128</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097199</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>19.94667551886869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>519.9105708963857</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094864.224080486</v>
+        <v>1094339.041711453</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916853</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.12713358063633</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>79.5320329429121</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>3.223633682825256</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>13.8523599663048</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.7925313457777</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>275.8843609624694</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>66.1229701596079</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011674</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1135,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>64.32458389125834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>101.7001398430664</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>223.3280498944713</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>144.4937753855527</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>173.7040795765188</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800593</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226111</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>35.34780583513513</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208695</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790287</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>82.4364859564396</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791327643</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.932506313052</v>
+        <v>1292.14448398095</v>
       </c>
       <c r="C2" t="n">
-        <v>915.3508320503199</v>
+        <v>1211.809097169927</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O3" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.4003675628674</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>519.4003675628674</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>519.4003675628674</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>519.4003675628674</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>342.6933135246236</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>177.1020385504513</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>37.19986424082578</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4524,16 +4524,16 @@
         <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>992.2117929153466</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>746.820038248759</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>519.4003675628674</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2187.524650040843</v>
+        <v>820.8072974370046</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.382177224266</v>
+        <v>382.664824620428</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.47239239871</v>
+        <v>103.9937529411659</v>
       </c>
       <c r="E5" t="n">
-        <v>879.6976475570054</v>
+        <v>74.25941213986516</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717423</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717423</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717423</v>
+        <v>1109.787858087172</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717423</v>
+        <v>1181.865694717419</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762201</v>
+        <v>1805.966478762196</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2352.465264720791</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2437.967455657685</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473853</v>
+        <v>2437.967455657685</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473853</v>
+        <v>2437.967455657685</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473853</v>
+        <v>2075.350505591511</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.80427892529</v>
+        <v>1670.495051002544</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545005</v>
+        <v>1655.392991622259</v>
       </c>
       <c r="Y5" t="n">
-        <v>2501.456499885062</v>
+        <v>1247.106867921912</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326448</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993466</v>
+        <v>76.49605974993456</v>
       </c>
       <c r="J6" t="n">
-        <v>401.054384716147</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760926</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
         <v>1055.760431341871</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>952.7834931631146</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>780.2217816463395</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>614.3437888478622</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>444.5857850985995</v>
+        <v>621.2928391368432</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>444.5857850985994</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947705</v>
+        <v>50.43238658947696</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255753</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413397</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639179</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="T7" t="n">
-        <v>2454.828450524754</v>
+        <v>2521.619329473848</v>
       </c>
       <c r="U7" t="n">
-        <v>2176.395449777859</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1889.43994164829</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1617.413537234581</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1372.021782567994</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1144.602111882102</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1373.289198434989</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1339.187129658816</v>
       </c>
       <c r="D8" t="n">
-        <v>508.3604142570537</v>
+        <v>903.2773448332607</v>
       </c>
       <c r="E8" t="n">
-        <v>478.6260734557529</v>
+        <v>469.5025999915559</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>445.6755744411677</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,13 +4807,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5044,16 +5044,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
         <v>3569.079287993934</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5214,37 +5214,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.22078133891</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309252</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471581</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050036</v>
+        <v>2334.095192689281</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303141</v>
+        <v>2055.662191942386</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5284,7 +5284,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
         <v>2588.899621423628</v>
@@ -5305,25 +5305,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5454,34 +5454,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173583</v>
+        <v>2712.869316012954</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173583</v>
+        <v>2553.627947310951</v>
       </c>
       <c r="T16" t="n">
-        <v>2543.461783934675</v>
+        <v>2307.748500889406</v>
       </c>
       <c r="U16" t="n">
-        <v>2265.02878318778</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V16" t="n">
-        <v>1978.07327505821</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W16" t="n">
-        <v>1706.046870644502</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.655115977914</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5755,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5931,10 +5931,10 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
         <v>2700.681281130895</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,10 +6065,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>303.5569696238763</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6925,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
+        <v>4397.38916282733</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4943.887948785925</v>
+      </c>
+      <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5113.042013538981</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497401</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367832</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954123</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.710185817961</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>926.148474301186</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2035.366634303136</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1763.340229889428</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.94847522284</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1290.528804536948</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771609</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004247</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
         <v>4943.887948785925</v>
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
         <v>780.1951658309357</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7651,31 +7651,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1612.575493976557</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3718.48614398331</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4546.796018816706</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5093.294804775302</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684621</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558610791</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741936</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671608</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475101</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>524.2002727610084</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>328.1614411053483</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>980.0845558810993</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>19.94667551886869</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.09260206285799</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.5921776627212</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>15.21302026266331</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69.7165723808105</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627222</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1553467313941</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>208.2197249473388</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>81.78272691405293</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>602114.2558842516</v>
+        <v>602114.2558842514</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634368.5695750327</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634368.5695750327</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634368.5695750325</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634368.5695750327</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634368.5695750326</v>
+        <v>634368.5695750325</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634368.5695750325</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="D2" t="n">
         <v>402110.4899178064</v>
-      </c>
-      <c r="D2" t="n">
-        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="F2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030142</v>
@@ -26334,28 +26334,28 @@
         <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="O2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="P2" t="n">
         <v>395143.1881030142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>395143.1881030142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501606</v>
+        <v>66587.76789501566</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998288</v>
+        <v>11527.59554998326</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877243</v>
+        <v>53045.85463877205</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.3017266224</v>
+        <v>9392.301726622774</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.499790937</v>
+        <v>187964.4997909372</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26459,7 +26459,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800247</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26490,13 +26490,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17730.86491169507</v>
+        <v>-17730.86491169509</v>
       </c>
       <c r="C6" t="n">
-        <v>75602.00842385081</v>
+        <v>75602.00842385099</v>
       </c>
       <c r="D6" t="n">
-        <v>133854.3875327382</v>
+        <v>133854.3875327377</v>
       </c>
       <c r="E6" t="n">
-        <v>26752.52244770908</v>
+        <v>26729.29810832637</v>
       </c>
       <c r="F6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="G6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="H6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293762</v>
       </c>
       <c r="I6" t="n">
-        <v>209107.6316687587</v>
+        <v>209084.4073293762</v>
       </c>
       <c r="J6" t="n">
-        <v>98093.16632376867</v>
+        <v>98069.94198438586</v>
       </c>
       <c r="K6" t="n">
-        <v>156061.7770299863</v>
+        <v>156038.5526906041</v>
       </c>
       <c r="L6" t="n">
-        <v>199715.3299421364</v>
+        <v>199692.1056027533</v>
       </c>
       <c r="M6" t="n">
-        <v>56907.46073077113</v>
+        <v>56884.23639138843</v>
       </c>
       <c r="N6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="O6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="P6" t="n">
-        <v>209107.6316687589</v>
+        <v>209084.4073293761</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684632</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483576</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939499</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483574</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939521</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483589</v>
+        <v>206.1089748483576</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939374</v>
+        <v>37.11037423939499</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.9094411994224</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>354.2290151454988</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54971605024616</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>211.293114012728</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.244043434281</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>155.6663260148305</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>177.2976817977214</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382583</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>367.2261030860416</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>295.6837132199023</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
     </row>
     <row r="38">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>358.9284720888815</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684621</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558610791</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684619</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741936</v>
+        <v>30.91440664742072</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671608</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475101</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512993</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,10 +35652,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35822,7 +35822,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>524.2002727610084</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36299,7 +36299,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>328.1614411053483</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>980.0845558810993</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>19.94667551886869</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
